--- a/data/soe_tables_20240429.xlsx
+++ b/data/soe_tables_20240429.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/mmacleo2_ed_ac_uk/Documents/Applications/WT Mental Health/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/mmacleo2_ed_ac_uk/Documents/Applications/WT Mental Health/LSR2_PTSD/LRS2_290404/LSR2_exercise_A/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{50F62639-1B5D-DB4E-A353-01E310929FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{221313FD-E57B-4082-89B5-6D1C4AB53D54}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{50F62639-1B5D-DB4E-A353-01E310929FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A945B01D-27F7-497A-A908-C42BF4644DFE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="TvC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>Outcome</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hyperlocomotion in humans is taken as a marker of agitation, but in animal models of PTSD reduced activity in the open field test is held to represent a disease phenotype </t>
+  </si>
+  <si>
+    <t>Moderate risk of indirectness. For explanation, see [2] below.</t>
+  </si>
+  <si>
+    <t>Moderate risk of indirectness. For explanation, see [3] below.</t>
   </si>
 </sst>
 </file>
@@ -765,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -891,7 +897,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
@@ -911,7 +917,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>22</v>
@@ -931,7 +937,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>22</v>
@@ -951,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>22</v>
@@ -966,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2502A7F1-62AA-1544-B3B9-07F305A4B185}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1011,7 +1017,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -1031,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
@@ -1051,7 +1057,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
@@ -1071,7 +1077,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
@@ -1091,7 +1097,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
@@ -1111,7 +1117,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>22</v>
@@ -1131,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>22</v>
@@ -1151,7 +1157,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>22</v>
@@ -1166,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394D2AD-34C2-4744-B6C1-E9F10D5449F1}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="102.75" thickBot="1">
+    <row r="5" spans="1:10" ht="90" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="115.5" thickBot="1">
+    <row r="7" spans="1:10" ht="90" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="204.75" thickBot="1">
+    <row r="10" spans="1:10" ht="166.5" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="115.5" thickBot="1">
+    <row r="11" spans="1:10" ht="102.75" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
